--- a/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="708">
   <si>
     <t>다산초당</t>
   </si>
@@ -1057,54 +1057,6 @@
     <t>A0034</t>
   </si>
   <si>
-    <t>A0040</t>
-  </si>
-  <si>
-    <t>A0049</t>
-  </si>
-  <si>
-    <t>A0100</t>
-  </si>
-  <si>
-    <t>A0052</t>
-  </si>
-  <si>
-    <t>A0084</t>
-  </si>
-  <si>
-    <t>A0076</t>
-  </si>
-  <si>
-    <t>A0072</t>
-  </si>
-  <si>
-    <t>A0079</t>
-  </si>
-  <si>
-    <t>A0090</t>
-  </si>
-  <si>
-    <t>A0038</t>
-  </si>
-  <si>
-    <t>A0080</t>
-  </si>
-  <si>
-    <t>A0097</t>
-  </si>
-  <si>
-    <t>A0069</t>
-  </si>
-  <si>
-    <t>A0053</t>
-  </si>
-  <si>
-    <t>A0045</t>
-  </si>
-  <si>
-    <t>A0066</t>
-  </si>
-  <si>
     <t>갈한수</t>
   </si>
   <si>
@@ -2132,23 +2084,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>'9791162540466</t>
+  </si>
+  <si>
+    <t>'9791188850327</t>
+  </si>
+  <si>
+    <t>'9791162540558</t>
+  </si>
+  <si>
+    <t>'9791162540695</t>
+  </si>
+  <si>
+    <t>'9791188850518</t>
+  </si>
+  <si>
+    <t>'9791188850303</t>
+  </si>
+  <si>
+    <t>'9791188850501</t>
+  </si>
+  <si>
+    <t>'9791188850341</t>
+  </si>
+  <si>
+    <t>'9791162540527</t>
+  </si>
+  <si>
+    <t>'9791162540671</t>
+  </si>
+  <si>
+    <t>'9791188850440</t>
+  </si>
+  <si>
+    <t>'9791162540718</t>
+  </si>
+  <si>
+    <t>'9791162540732</t>
+  </si>
+  <si>
+    <t>'9791188850280</t>
+  </si>
+  <si>
+    <t>'9791188850549</t>
+  </si>
+  <si>
+    <t>'9791188850266</t>
+  </si>
+  <si>
+    <t>'9791186805398</t>
+  </si>
+  <si>
+    <t>'9791162540770</t>
+  </si>
+  <si>
+    <t>'9791162540619</t>
+  </si>
+  <si>
+    <t>'9791162540640</t>
+  </si>
+  <si>
+    <t>'9791162540572</t>
+  </si>
+  <si>
+    <t>'9791188850389</t>
+  </si>
+  <si>
+    <t>'9791188850426</t>
+  </si>
+  <si>
+    <t>'9791188850471</t>
+  </si>
+  <si>
+    <t>'9791162540480</t>
+  </si>
+  <si>
+    <t>'9791162540503</t>
+  </si>
+  <si>
+    <t>'9791188850365</t>
+  </si>
+  <si>
+    <t>'9791188850402</t>
+  </si>
+  <si>
+    <t>'9791162540756</t>
+  </si>
+  <si>
+    <t>'9791162540596</t>
+  </si>
+  <si>
     <t>ISBN</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
+    <t>도서명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <t>출판사명</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>저자명</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사대표자명</t>
+    <t>출판사대표</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -2157,6 +2195,18 @@
   </si>
   <si>
     <t>저자연락처</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -3231,7 +3281,7 @@
         <v>292</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>205</v>
@@ -3250,11 +3300,12 @@
       <c r="C2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>312</v>
+      <c r="D2" s="6" t="str">
+        <f ca="1">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0002</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="F2" s="8">
         <v>272</v>
@@ -3273,11 +3324,12 @@
       <c r="C3" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>322</v>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D31" ca="1" si="0">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0012</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="F3" s="8">
         <v>132</v>
@@ -3296,11 +3348,12 @@
       <c r="C4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>340</v>
+      <c r="D4" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0034</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F4" s="8">
         <v>388</v>
@@ -3319,11 +3372,12 @@
       <c r="C5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>341</v>
+      <c r="D5" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0010</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F5" s="8">
         <v>440</v>
@@ -3342,11 +3396,12 @@
       <c r="C6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>342</v>
+      <c r="D6" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0005</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F6" s="8">
         <v>280</v>
@@ -3365,11 +3420,12 @@
       <c r="C7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>343</v>
+      <c r="D7" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F7" s="8">
         <v>368</v>
@@ -3388,11 +3444,12 @@
       <c r="C8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>326</v>
+      <c r="D8" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="F8" s="8">
         <v>536</v>
@@ -3411,11 +3468,12 @@
       <c r="C9" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>307</v>
+      <c r="D9" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="F9" s="8">
         <v>232</v>
@@ -3434,11 +3492,12 @@
       <c r="C10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>323</v>
+      <c r="D10" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0031</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="F10" s="8">
         <v>264</v>
@@ -3457,11 +3516,12 @@
       <c r="C11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>344</v>
+      <c r="D11" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0020</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F11" s="8">
         <v>500</v>
@@ -3480,11 +3540,12 @@
       <c r="C12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>345</v>
+      <c r="D12" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0031</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="F12" s="8">
         <v>248</v>
@@ -3503,11 +3564,12 @@
       <c r="C13" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>346</v>
+      <c r="D13" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F13" s="8">
         <v>376</v>
@@ -3526,11 +3588,12 @@
       <c r="C14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>333</v>
+      <c r="D14" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0011</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="F14" s="8">
         <v>360</v>
@@ -3549,11 +3612,12 @@
       <c r="C15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>332</v>
+      <c r="D15" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="F15" s="8">
         <v>416</v>
@@ -3572,11 +3636,12 @@
       <c r="C16" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>347</v>
+      <c r="D16" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="F16" s="8">
         <v>252</v>
@@ -3595,11 +3660,12 @@
       <c r="C17" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>309</v>
+      <c r="D17" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="F17" s="8">
         <v>456</v>
@@ -3618,11 +3684,12 @@
       <c r="C18" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>348</v>
+      <c r="D18" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="F18" s="8">
         <v>252</v>
@@ -3641,11 +3708,12 @@
       <c r="C19" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>349</v>
+      <c r="D19" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0018</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="F19" s="8">
         <v>240</v>
@@ -3664,11 +3732,12 @@
       <c r="C20" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>350</v>
+      <c r="D20" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="F20" s="8">
         <v>280</v>
@@ -3687,11 +3756,12 @@
       <c r="C21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>311</v>
+      <c r="D21" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="F21" s="8">
         <v>316</v>
@@ -3710,11 +3780,12 @@
       <c r="C22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>351</v>
+      <c r="D22" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F22" s="8">
         <v>256</v>
@@ -3733,11 +3804,12 @@
       <c r="C23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>326</v>
+      <c r="D23" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="F23" s="8">
         <v>272</v>
@@ -3756,11 +3828,12 @@
       <c r="C24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>316</v>
+      <c r="D24" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0020</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="F24" s="8">
         <v>232</v>
@@ -3779,11 +3852,12 @@
       <c r="C25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>322</v>
+      <c r="D25" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0004</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F25" s="8">
         <v>236</v>
@@ -3802,11 +3876,12 @@
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>352</v>
+      <c r="D26" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F26" s="8">
         <v>376</v>
@@ -3825,11 +3900,12 @@
       <c r="C27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>353</v>
+      <c r="D27" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0026</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F27" s="8">
         <v>228</v>
@@ -3848,11 +3924,12 @@
       <c r="C28" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>354</v>
+      <c r="D28" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="F28" s="8">
         <v>232</v>
@@ -3871,11 +3948,12 @@
       <c r="C29" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>355</v>
+      <c r="D29" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F29" s="8">
         <v>240</v>
@@ -3894,11 +3972,12 @@
       <c r="C30" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>335</v>
+      <c r="D30" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0014</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="F30" s="8">
         <v>464</v>
@@ -3917,11 +3996,12 @@
       <c r="C31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>310</v>
+      <c r="D31" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0003</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F31" s="8">
         <v>436</v>
@@ -3979,13 +4059,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" customHeight="1">
@@ -3996,13 +4076,13 @@
         <v>58</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25" customHeight="1">
@@ -4013,13 +4093,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1">
@@ -4030,13 +4110,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1">
@@ -4047,13 +4127,13 @@
         <v>72</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.25" customHeight="1">
@@ -4064,13 +4144,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" customHeight="1">
@@ -4081,13 +4161,13 @@
         <v>67</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1">
@@ -4098,13 +4178,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1">
@@ -4115,13 +4195,13 @@
         <v>59</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1">
@@ -4132,13 +4212,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1">
@@ -4149,13 +4229,13 @@
         <v>88</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.25" customHeight="1">
@@ -4166,13 +4246,13 @@
         <v>74</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25" customHeight="1">
@@ -4183,13 +4263,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.25" customHeight="1">
@@ -4200,13 +4280,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1">
@@ -4217,13 +4297,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1">
@@ -4234,13 +4314,13 @@
         <v>94</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1">
@@ -4251,13 +4331,13 @@
         <v>80</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1">
@@ -4268,13 +4348,13 @@
         <v>95</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1">
@@ -4285,13 +4365,13 @@
         <v>99</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1">
@@ -4302,13 +4382,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1">
@@ -4319,13 +4399,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1">
@@ -4336,13 +4416,13 @@
         <v>79</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1">
@@ -4353,13 +4433,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="26.25" customHeight="1">
@@ -4370,13 +4450,13 @@
         <v>76</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1">
@@ -4387,13 +4467,13 @@
         <v>85</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.25" customHeight="1">
@@ -4404,13 +4484,13 @@
         <v>75</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.25" customHeight="1">
@@ -4421,13 +4501,13 @@
         <v>30</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.25" customHeight="1">
@@ -4438,13 +4518,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="26.25" customHeight="1">
@@ -4455,13 +4535,13 @@
         <v>87</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="26.25" customHeight="1">
@@ -4472,13 +4552,13 @@
         <v>50</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.25" customHeight="1">
@@ -4489,13 +4569,13 @@
         <v>70</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.25" customHeight="1">
@@ -4506,13 +4586,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" customHeight="1">
@@ -4523,13 +4603,13 @@
         <v>93</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1">
@@ -4540,13 +4620,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1">
@@ -4557,13 +4637,13 @@
         <v>44</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.25" customHeight="1">
@@ -4574,13 +4654,13 @@
         <v>96</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="26.25" customHeight="1">
@@ -4591,13 +4671,13 @@
         <v>91</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="26.25" customHeight="1">
@@ -4608,13 +4688,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1">
@@ -4625,13 +4705,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.25" customHeight="1">
@@ -4642,13 +4722,13 @@
         <v>71</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="26.25" customHeight="1">
@@ -4659,13 +4739,13 @@
         <v>52</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="26.25" customHeight="1">
@@ -4676,13 +4756,13 @@
         <v>86</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1">
@@ -4693,13 +4773,13 @@
         <v>55</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26.25" customHeight="1">
@@ -4710,13 +4790,13 @@
         <v>92</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26.25" customHeight="1">
@@ -4727,13 +4807,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="26.25" customHeight="1">
@@ -4744,13 +4824,13 @@
         <v>63</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.25" customHeight="1">
@@ -4761,13 +4841,13 @@
         <v>97</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.25" customHeight="1">
@@ -4778,13 +4858,13 @@
         <v>61</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="26.25" customHeight="1">
@@ -4795,13 +4875,13 @@
         <v>54</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.25" customHeight="1">
@@ -4812,13 +4892,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26.25" customHeight="1">
@@ -4829,13 +4909,13 @@
         <v>38</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1">
@@ -4846,13 +4926,13 @@
         <v>17</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="26.25" customHeight="1">
@@ -4863,13 +4943,13 @@
         <v>66</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="26.25" customHeight="1">
@@ -4880,13 +4960,13 @@
         <v>73</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="26.25" customHeight="1">
@@ -4897,13 +4977,13 @@
         <v>27</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="26.25" customHeight="1">
@@ -4914,13 +4994,13 @@
         <v>98</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="26.25" customHeight="1">
@@ -4931,13 +5011,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="26.25" customHeight="1">
@@ -4948,13 +5028,13 @@
         <v>35</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="26.25" customHeight="1">
@@ -4965,13 +5045,13 @@
         <v>24</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="26.25" customHeight="1">
@@ -4982,13 +5062,13 @@
         <v>45</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="26.25" customHeight="1">
@@ -4999,13 +5079,13 @@
         <v>100</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="26.25" customHeight="1">
@@ -5016,13 +5096,13 @@
         <v>78</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="26.25" customHeight="1">
@@ -5033,13 +5113,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.25" customHeight="1">
@@ -5050,13 +5130,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="26.25" customHeight="1">
@@ -5067,13 +5147,13 @@
         <v>46</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="26.25" customHeight="1">
@@ -5084,13 +5164,13 @@
         <v>81</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26.25" customHeight="1">
@@ -5101,13 +5181,13 @@
         <v>23</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.25" customHeight="1">
@@ -5118,13 +5198,13 @@
         <v>84</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="26.25" customHeight="1">
@@ -5135,13 +5215,13 @@
         <v>16</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="26.25" customHeight="1">
@@ -5152,13 +5232,13 @@
         <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="26.25" customHeight="1">
@@ -5169,13 +5249,13 @@
         <v>22</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="26.25" customHeight="1">
@@ -5186,13 +5266,13 @@
         <v>6</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="26.25" customHeight="1">
@@ -5203,13 +5283,13 @@
         <v>4</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.25" customHeight="1">
@@ -5220,13 +5300,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="26.25" customHeight="1">
@@ -5237,13 +5317,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="26.25" customHeight="1">
@@ -5254,13 +5334,13 @@
         <v>82</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="26.25" customHeight="1">
@@ -5271,13 +5351,13 @@
         <v>83</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="26.25" customHeight="1">
@@ -5288,13 +5368,13 @@
         <v>51</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="26.25" customHeight="1">
@@ -5305,13 +5385,13 @@
         <v>68</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="26.25" customHeight="1">
@@ -5322,13 +5402,13 @@
         <v>53</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="26.25" customHeight="1">
@@ -5339,13 +5419,13 @@
         <v>69</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="26.25" customHeight="1">
@@ -5356,13 +5436,13 @@
         <v>32</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="26.25" customHeight="1">
@@ -5373,13 +5453,13 @@
         <v>34</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="26.25" customHeight="1">
@@ -5390,13 +5470,13 @@
         <v>31</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="26.25" customHeight="1">
@@ -5407,13 +5487,13 @@
         <v>89</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="26.25" customHeight="1">
@@ -5424,13 +5504,13 @@
         <v>41</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="26.25" customHeight="1">
@@ -5441,13 +5521,13 @@
         <v>39</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="26.25" customHeight="1">
@@ -5458,13 +5538,13 @@
         <v>28</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="26.25" customHeight="1">
@@ -5475,13 +5555,13 @@
         <v>11</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="26.25" customHeight="1">
@@ -5492,13 +5572,13 @@
         <v>90</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="26.25" customHeight="1">
@@ -5509,13 +5589,13 @@
         <v>12</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="26.25" customHeight="1">
@@ -5526,13 +5606,13 @@
         <v>48</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="26.25" customHeight="1">
@@ -5543,13 +5623,13 @@
         <v>29</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="26.25" customHeight="1">
@@ -5560,13 +5640,13 @@
         <v>77</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="26.25" customHeight="1">
@@ -5577,13 +5657,13 @@
         <v>15</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="26.25" customHeight="1">
@@ -5594,13 +5674,13 @@
         <v>37</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="26.25" customHeight="1">
@@ -5611,13 +5691,13 @@
         <v>60</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="26.25" customHeight="1">
@@ -5628,13 +5708,13 @@
         <v>62</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="26.25" customHeight="1">
@@ -5645,13 +5725,13 @@
         <v>57</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="26.25" customHeight="1">
@@ -5662,13 +5742,13 @@
         <v>40</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5719,10 +5799,10 @@
         <v>282</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1">
@@ -5733,10 +5813,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1">
@@ -5747,10 +5827,10 @@
         <v>296</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1">
@@ -5761,10 +5841,10 @@
         <v>236</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1">
@@ -5775,10 +5855,10 @@
         <v>215</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1">
@@ -5789,10 +5869,10 @@
         <v>259</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1">
@@ -5803,10 +5883,10 @@
         <v>212</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1">
@@ -5817,10 +5897,10 @@
         <v>285</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1">
@@ -5831,10 +5911,10 @@
         <v>245</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1">
@@ -5845,10 +5925,10 @@
         <v>265</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1">
@@ -5859,10 +5939,10 @@
         <v>268</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1">
@@ -5873,10 +5953,10 @@
         <v>297</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1">
@@ -5887,10 +5967,10 @@
         <v>253</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1">
@@ -5901,10 +5981,10 @@
         <v>242</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1">
@@ -5915,10 +5995,10 @@
         <v>262</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1">
@@ -5929,10 +6009,10 @@
         <v>279</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1">
@@ -5943,10 +6023,10 @@
         <v>223</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1">
@@ -5957,10 +6037,10 @@
         <v>209</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1">
@@ -5971,10 +6051,10 @@
         <v>274</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1">
@@ -5985,10 +6065,10 @@
         <v>248</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1">
@@ -5999,10 +6079,10 @@
         <v>256</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1">
@@ -6013,10 +6093,10 @@
         <v>220</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1">
@@ -6027,10 +6107,10 @@
         <v>291</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1">
@@ -6041,10 +6121,10 @@
         <v>288</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1">
@@ -6055,10 +6135,10 @@
         <v>298</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1">
@@ -6069,10 +6149,10 @@
         <v>215</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1">
@@ -6083,10 +6163,10 @@
         <v>299</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1">
@@ -6097,10 +6177,10 @@
         <v>271</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1">
@@ -6111,10 +6191,10 @@
         <v>233</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1">
@@ -6125,10 +6205,10 @@
         <v>228</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1">
@@ -6139,10 +6219,10 @@
         <v>300</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" customHeight="1">
@@ -6153,10 +6233,10 @@
         <v>301</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22.5" customHeight="1">
@@ -6167,10 +6247,10 @@
         <v>302</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1">
@@ -6181,10 +6261,10 @@
         <v>303</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6196,15 +6276,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="17" customWidth="1"/>
     <col min="2" max="2" width="47.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
@@ -6213,32 +6293,38 @@
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="B1" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="C1" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="D1" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="E1" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="F1" t="s">
-        <v>691</v>
+        <v>704</v>
+      </c>
+      <c r="G1" t="s">
+        <v>705</v>
       </c>
       <c r="H1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="17">
-        <v>9791162540466</v>
+        <v>706</v>
+      </c>
+      <c r="I1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17" t="s">
+        <v>669</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
@@ -6247,24 +6333,27 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>215</v>
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="G2" s="18">
         <v>43402</v>
       </c>
       <c r="H2">
+        <v>18000</v>
+      </c>
+      <c r="I2">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="17">
-        <v>9791188850327</v>
+    <row r="3" spans="1:9">
+      <c r="A3" s="17" t="s">
+        <v>670</v>
       </c>
       <c r="B3" t="s">
         <v>273</v>
@@ -6273,24 +6362,27 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="G3" s="18">
         <v>43433</v>
       </c>
       <c r="H3">
+        <v>14000</v>
+      </c>
+      <c r="I3">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17">
-        <v>9791162540558</v>
+    <row r="4" spans="1:9">
+      <c r="A4" s="17" t="s">
+        <v>671</v>
       </c>
       <c r="B4" t="s">
         <v>261</v>
@@ -6299,24 +6391,27 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="G4" s="18">
         <v>43475</v>
       </c>
       <c r="H4">
+        <v>15800</v>
+      </c>
+      <c r="I4">
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17">
-        <v>9791162540695</v>
+    <row r="5" spans="1:9">
+      <c r="A5" s="17" t="s">
+        <v>672</v>
       </c>
       <c r="B5" t="s">
         <v>230</v>
@@ -6325,24 +6420,27 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G5" s="18">
         <v>43549</v>
       </c>
       <c r="H5">
+        <v>15000</v>
+      </c>
+      <c r="I5">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17">
-        <v>9791188850518</v>
+    <row r="6" spans="1:9">
+      <c r="A6" s="17" t="s">
+        <v>673</v>
       </c>
       <c r="B6" t="s">
         <v>214</v>
@@ -6351,19 +6449,27 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" s="18"/>
+        <v>394</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" t="s">
+        <v>449</v>
+      </c>
       <c r="G6" s="18">
         <v>43565</v>
       </c>
       <c r="H6">
+        <v>14000</v>
+      </c>
+      <c r="I6">
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17">
-        <v>9791188850303</v>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>674</v>
       </c>
       <c r="B7" t="s">
         <v>278</v>
@@ -6372,19 +6478,27 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>409</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" t="s">
+        <v>464</v>
+      </c>
       <c r="G7" s="18">
         <v>43427</v>
       </c>
       <c r="H7">
+        <v>13500</v>
+      </c>
+      <c r="I7">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="17">
-        <v>9791188850501</v>
+    <row r="8" spans="1:9">
+      <c r="A8" s="17" t="s">
+        <v>675</v>
       </c>
       <c r="B8" t="s">
         <v>217</v>
@@ -6393,19 +6507,27 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E8" s="18"/>
+        <v>427</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" t="s">
+        <v>386</v>
+      </c>
       <c r="G8" s="18">
         <v>43565</v>
       </c>
       <c r="H8">
+        <v>14000</v>
+      </c>
+      <c r="I8">
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17">
-        <v>9791188850341</v>
+    <row r="9" spans="1:9">
+      <c r="A9" s="17" t="s">
+        <v>676</v>
       </c>
       <c r="B9" t="s">
         <v>267</v>
@@ -6414,24 +6536,27 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="G9" s="18">
         <v>43454</v>
       </c>
       <c r="H9">
+        <v>14800</v>
+      </c>
+      <c r="I9">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17">
-        <v>9791162540527</v>
+    <row r="10" spans="1:9">
+      <c r="A10" s="17" t="s">
+        <v>677</v>
       </c>
       <c r="B10" t="s">
         <v>270</v>
@@ -6440,24 +6565,27 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="G10" s="18">
         <v>43449</v>
       </c>
       <c r="H10">
+        <v>13500</v>
+      </c>
+      <c r="I10">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17">
-        <v>9791162540671</v>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17" t="s">
+        <v>678</v>
       </c>
       <c r="B11" t="s">
         <v>232</v>
@@ -6466,19 +6594,27 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>439</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" t="s">
+        <v>434</v>
+      </c>
       <c r="G11" s="18">
         <v>43544</v>
       </c>
       <c r="H11">
+        <v>13800</v>
+      </c>
+      <c r="I11">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="17">
-        <v>9791188850440</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="17" t="s">
+        <v>679</v>
       </c>
       <c r="B12" t="s">
         <v>235</v>
@@ -6487,19 +6623,27 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E12" s="18"/>
+        <v>442</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" t="s">
+        <v>407</v>
+      </c>
       <c r="G12" s="18">
         <v>43539</v>
       </c>
       <c r="H12">
+        <v>13800</v>
+      </c>
+      <c r="I12">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="17">
-        <v>9791162540718</v>
+    <row r="13" spans="1:9">
+      <c r="A13" s="17" t="s">
+        <v>680</v>
       </c>
       <c r="B13" t="s">
         <v>227</v>
@@ -6508,24 +6652,27 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G13" s="18">
         <v>43554</v>
       </c>
       <c r="H13">
+        <v>13000</v>
+      </c>
+      <c r="I13">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="17">
-        <v>9791162540732</v>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="B14" t="s">
         <v>225</v>
@@ -6534,24 +6681,27 @@
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G14" s="18">
         <v>43555</v>
       </c>
       <c r="H14">
+        <v>22000</v>
+      </c>
+      <c r="I14">
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="17">
-        <v>9791188850280</v>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17" t="s">
+        <v>682</v>
       </c>
       <c r="B15" t="s">
         <v>281</v>
@@ -6560,19 +6710,27 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
-      </c>
-      <c r="E15" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" t="s">
+        <v>401</v>
+      </c>
       <c r="G15" s="18">
         <v>43419</v>
       </c>
       <c r="H15">
+        <v>14800</v>
+      </c>
+      <c r="I15">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="17">
-        <v>9791188850549</v>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17" t="s">
+        <v>683</v>
       </c>
       <c r="B16" t="s">
         <v>211</v>
@@ -6581,24 +6739,27 @@
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="G16" s="18">
         <v>43566</v>
       </c>
       <c r="H16">
+        <v>13000</v>
+      </c>
+      <c r="I16">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17">
-        <v>9791188850266</v>
+    <row r="17" spans="1:9">
+      <c r="A17" s="17" t="s">
+        <v>684</v>
       </c>
       <c r="B17" t="s">
         <v>284</v>
@@ -6607,19 +6768,27 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
-      </c>
-      <c r="E17" s="18"/>
+        <v>481</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" t="s">
+        <v>434</v>
+      </c>
       <c r="G17" s="18">
         <v>43404</v>
       </c>
       <c r="H17">
+        <v>14000</v>
+      </c>
+      <c r="I17">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17">
-        <v>9791186805398</v>
+    <row r="18" spans="1:9">
+      <c r="A18" s="17" t="s">
+        <v>685</v>
       </c>
       <c r="B18" t="s">
         <v>244</v>
@@ -6628,24 +6797,27 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="G18" s="18">
         <v>43516</v>
       </c>
       <c r="H18">
+        <v>16000</v>
+      </c>
+      <c r="I18">
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17">
-        <v>9791162540770</v>
+    <row r="19" spans="1:9">
+      <c r="A19" s="17" t="s">
+        <v>686</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -6654,24 +6826,27 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G19" s="18">
         <v>43570</v>
       </c>
       <c r="H19">
+        <v>15000</v>
+      </c>
+      <c r="I19">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="17">
-        <v>9791162540619</v>
+    <row r="20" spans="1:9">
+      <c r="A20" s="17" t="s">
+        <v>687</v>
       </c>
       <c r="B20" t="s">
         <v>247</v>
@@ -6680,19 +6855,27 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>506</v>
-      </c>
-      <c r="E20" s="18"/>
+        <v>490</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" t="s">
+        <v>377</v>
+      </c>
       <c r="G20" s="18">
         <v>43511</v>
       </c>
       <c r="H20">
+        <v>14000</v>
+      </c>
+      <c r="I20">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17">
-        <v>9791162540640</v>
+    <row r="21" spans="1:9">
+      <c r="A21" s="17" t="s">
+        <v>688</v>
       </c>
       <c r="B21" t="s">
         <v>241</v>
@@ -6701,24 +6884,27 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F21" t="s">
-        <v>465</v>
+        <v>398</v>
       </c>
       <c r="G21" s="18">
         <v>43522</v>
       </c>
       <c r="H21">
+        <v>16000</v>
+      </c>
+      <c r="I21">
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17">
-        <v>9791162540572</v>
+    <row r="22" spans="1:9">
+      <c r="A22" s="17" t="s">
+        <v>689</v>
       </c>
       <c r="B22" t="s">
         <v>258</v>
@@ -6727,19 +6913,27 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>536</v>
-      </c>
-      <c r="E22" s="18"/>
+        <v>520</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" t="s">
+        <v>461</v>
+      </c>
       <c r="G22" s="18">
         <v>43483</v>
       </c>
       <c r="H22">
+        <v>15000</v>
+      </c>
+      <c r="I22">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17">
-        <v>9791188850389</v>
+    <row r="23" spans="1:9">
+      <c r="A23" s="17" t="s">
+        <v>690</v>
       </c>
       <c r="B23" t="s">
         <v>255</v>
@@ -6748,19 +6942,27 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>539</v>
-      </c>
-      <c r="E23" s="18"/>
+        <v>523</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" t="s">
+        <v>398</v>
+      </c>
       <c r="G23" s="18">
         <v>43493</v>
       </c>
       <c r="H23">
+        <v>13800</v>
+      </c>
+      <c r="I23">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="17">
-        <v>9791188850426</v>
+    <row r="24" spans="1:9">
+      <c r="A24" s="17" t="s">
+        <v>691</v>
       </c>
       <c r="B24" t="s">
         <v>238</v>
@@ -6769,19 +6971,27 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>551</v>
-      </c>
-      <c r="E24" s="18"/>
+        <v>535</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" t="s">
+        <v>407</v>
+      </c>
       <c r="G24" s="18">
         <v>43523</v>
       </c>
       <c r="H24">
+        <v>16800</v>
+      </c>
+      <c r="I24">
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17">
-        <v>9791188850471</v>
+    <row r="25" spans="1:9">
+      <c r="A25" s="17" t="s">
+        <v>692</v>
       </c>
       <c r="B25" t="s">
         <v>222</v>
@@ -6790,19 +7000,27 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>569</v>
-      </c>
-      <c r="E25" s="18"/>
+        <v>553</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" t="s">
+        <v>467</v>
+      </c>
       <c r="G25" s="18">
         <v>43565</v>
       </c>
       <c r="H25">
+        <v>25000</v>
+      </c>
+      <c r="I25">
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="17">
-        <v>9791162540480</v>
+    <row r="26" spans="1:9">
+      <c r="A26" s="17" t="s">
+        <v>693</v>
       </c>
       <c r="B26" t="s">
         <v>287</v>
@@ -6811,24 +7029,27 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G26" s="18">
         <v>43403</v>
       </c>
       <c r="H26">
+        <v>20000</v>
+      </c>
+      <c r="I26">
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="17">
-        <v>9791162540503</v>
+    <row r="27" spans="1:9">
+      <c r="A27" s="17" t="s">
+        <v>694</v>
       </c>
       <c r="B27" t="s">
         <v>276</v>
@@ -6837,19 +7058,27 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>578</v>
-      </c>
-      <c r="E27" s="18"/>
+        <v>562</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" t="s">
+        <v>467</v>
+      </c>
       <c r="G27" s="18">
         <v>43428</v>
       </c>
       <c r="H27">
+        <v>16500</v>
+      </c>
+      <c r="I27">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17">
-        <v>9791188850365</v>
+    <row r="28" spans="1:9">
+      <c r="A28" s="17" t="s">
+        <v>695</v>
       </c>
       <c r="B28" t="s">
         <v>264</v>
@@ -6858,19 +7087,27 @@
         <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>584</v>
-      </c>
-      <c r="E28" s="18"/>
+        <v>568</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" t="s">
+        <v>398</v>
+      </c>
       <c r="G28" s="18">
         <v>43459</v>
       </c>
       <c r="H28">
+        <v>13500</v>
+      </c>
+      <c r="I28">
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17">
-        <v>9791188850402</v>
+    <row r="29" spans="1:9">
+      <c r="A29" s="17" t="s">
+        <v>696</v>
       </c>
       <c r="B29" t="s">
         <v>252</v>
@@ -6879,19 +7116,27 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>587</v>
-      </c>
-      <c r="E29" s="18"/>
+        <v>571</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" t="s">
+        <v>431</v>
+      </c>
       <c r="G29" s="18">
         <v>43494</v>
       </c>
       <c r="H29">
+        <v>13500</v>
+      </c>
+      <c r="I29">
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17">
-        <v>9791162540756</v>
+    <row r="30" spans="1:9">
+      <c r="A30" s="17" t="s">
+        <v>697</v>
       </c>
       <c r="B30" t="s">
         <v>219</v>
@@ -6900,44 +7145,60 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>611</v>
-      </c>
-      <c r="E30" s="18"/>
+        <v>595</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" t="s">
+        <v>434</v>
+      </c>
       <c r="G30" s="18">
         <v>43565</v>
       </c>
       <c r="H30">
+        <v>15000</v>
+      </c>
+      <c r="I30">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17">
-        <v>9791162540596</v>
+    <row r="31" spans="1:9">
+      <c r="A31" s="17" t="s">
+        <v>698</v>
       </c>
       <c r="B31" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G31" s="18">
         <v>43495</v>
       </c>
       <c r="H31">
+        <v>18000</v>
+      </c>
+      <c r="I31">
         <v>456</v>
       </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="E32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>